--- a/quantidades_sem_cadeiras.xlsx
+++ b/quantidades_sem_cadeiras.xlsx
@@ -703,16 +703,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>43833</v>
+        <v>43663</v>
       </c>
       <c r="C16">
         <v>34089</v>
       </c>
       <c r="D16">
-        <v>9744</v>
+        <v>9574</v>
       </c>
       <c r="E16">
-        <v>77.77017315721032</v>
+        <v>78.07296795914161</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/quantidades_sem_cadeiras.xlsx
+++ b/quantidades_sem_cadeiras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -32,54 +32,6 @@
   </si>
   <si>
     <t>CAFI</t>
-  </si>
-  <si>
-    <t>CBAR</t>
-  </si>
-  <si>
-    <t>CBJA</t>
-  </si>
-  <si>
-    <t>CGAR</t>
-  </si>
-  <si>
-    <t>CPES</t>
-  </si>
-  <si>
-    <t>CPLT</t>
-  </si>
-  <si>
-    <t>CABL</t>
-  </si>
-  <si>
-    <t>CCAR</t>
-  </si>
-  <si>
-    <t>CCSA</t>
-  </si>
-  <si>
-    <t>CIGR</t>
-  </si>
-  <si>
-    <t>CIPJ</t>
-  </si>
-  <si>
-    <t>CJBG</t>
-  </si>
-  <si>
-    <t>COLI</t>
-  </si>
-  <si>
-    <t>CPMR</t>
-  </si>
-  <si>
-    <t>CREC</t>
-  </si>
-  <si>
-    <t>CVSA</t>
-  </si>
-  <si>
-    <t>REIF</t>
   </si>
 </sst>
 </file>
@@ -437,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,278 +429,6 @@
         <v>95.65925753520307</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>17842</v>
-      </c>
-      <c r="C3">
-        <v>8003</v>
-      </c>
-      <c r="D3">
-        <v>9839</v>
-      </c>
-      <c r="E3">
-        <v>44.85483690169264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>20255</v>
-      </c>
-      <c r="C4">
-        <v>7143</v>
-      </c>
-      <c r="D4">
-        <v>13112</v>
-      </c>
-      <c r="E4">
-        <v>35.26536657615404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>10996</v>
-      </c>
-      <c r="C5">
-        <v>8827</v>
-      </c>
-      <c r="D5">
-        <v>2169</v>
-      </c>
-      <c r="E5">
-        <v>80.27464532557293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>11828</v>
-      </c>
-      <c r="C6">
-        <v>9410</v>
-      </c>
-      <c r="D6">
-        <v>2418</v>
-      </c>
-      <c r="E6">
-        <v>79.55698342915116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6536</v>
-      </c>
-      <c r="C7">
-        <v>4589</v>
-      </c>
-      <c r="D7">
-        <v>1947</v>
-      </c>
-      <c r="E7">
-        <v>70.21113831089352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3341</v>
-      </c>
-      <c r="C8">
-        <v>2849</v>
-      </c>
-      <c r="D8">
-        <v>492</v>
-      </c>
-      <c r="E8">
-        <v>85.27387009877282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>10660</v>
-      </c>
-      <c r="C9">
-        <v>4334</v>
-      </c>
-      <c r="D9">
-        <v>6326</v>
-      </c>
-      <c r="E9">
-        <v>40.65666041275797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>9062</v>
-      </c>
-      <c r="C10">
-        <v>7303</v>
-      </c>
-      <c r="D10">
-        <v>1759</v>
-      </c>
-      <c r="E10">
-        <v>80.58927389097329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4405</v>
-      </c>
-      <c r="C11">
-        <v>3356</v>
-      </c>
-      <c r="D11">
-        <v>1049</v>
-      </c>
-      <c r="E11">
-        <v>76.1861520998865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>13830</v>
-      </c>
-      <c r="C12">
-        <v>8405</v>
-      </c>
-      <c r="D12">
-        <v>5425</v>
-      </c>
-      <c r="E12">
-        <v>60.77368040491685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>2479</v>
-      </c>
-      <c r="C13">
-        <v>2248</v>
-      </c>
-      <c r="D13">
-        <v>231</v>
-      </c>
-      <c r="E13">
-        <v>90.68172650262203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3335</v>
-      </c>
-      <c r="C14">
-        <v>2703</v>
-      </c>
-      <c r="D14">
-        <v>632</v>
-      </c>
-      <c r="E14">
-        <v>81.04947526236882</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>2439</v>
-      </c>
-      <c r="C15">
-        <v>1734</v>
-      </c>
-      <c r="D15">
-        <v>705</v>
-      </c>
-      <c r="E15">
-        <v>71.09471094710948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>43663</v>
-      </c>
-      <c r="C16">
-        <v>34089</v>
-      </c>
-      <c r="D16">
-        <v>9574</v>
-      </c>
-      <c r="E16">
-        <v>78.07296795914161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>22083</v>
-      </c>
-      <c r="C17">
-        <v>14947</v>
-      </c>
-      <c r="D17">
-        <v>7136</v>
-      </c>
-      <c r="E17">
-        <v>67.68554997056559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>19336</v>
-      </c>
-      <c r="C18">
-        <v>7476</v>
-      </c>
-      <c r="D18">
-        <v>11860</v>
-      </c>
-      <c r="E18">
-        <v>38.66363260239967</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
